--- a/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_34.xlsx
+++ b/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_34.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_34_7</t>
+          <t>model_1_34_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9998216613847393</v>
+        <v>0.9499017732794919</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8276609576236907</v>
+        <v>0.7455145375032921</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8189255410653583</v>
+        <v>0.7591855037581163</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9995309916760825</v>
+        <v>0.9703588784474478</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0007423392470988743</v>
+        <v>0.1756198639014604</v>
       </c>
       <c r="G2" t="n">
-        <v>1.152431969918703</v>
+        <v>1.701745459513294</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6476928403088322</v>
+        <v>0.861379489830449</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00229146940571225</v>
+        <v>0.1026641517962557</v>
       </c>
       <c r="J2" t="n">
-        <v>0.04730332094498835</v>
+        <v>1.379621571414461</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02724590330855034</v>
+        <v>0.419070237432176</v>
       </c>
       <c r="L2" t="n">
-        <v>1.011413671376687</v>
+        <v>0.9317811380827123</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02767499904974886</v>
+        <v>0.4256701747551852</v>
       </c>
       <c r="N2" t="n">
-        <v>144.4114084259023</v>
+        <v>37.47886696802191</v>
       </c>
       <c r="O2" t="n">
-        <v>285.7465809691187</v>
+        <v>74.44345055624773</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_34_9</t>
+          <t>model_1_34_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9998127943555525</v>
+        <v>0.9503628724882585</v>
       </c>
       <c r="C3" t="n">
-        <v>0.827634325612832</v>
+        <v>0.744398845287636</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8196775827662106</v>
+        <v>0.7568304860372739</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9994730810520657</v>
+        <v>0.9674026338511045</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0007792484928104845</v>
+        <v>0.1740034757458393</v>
       </c>
       <c r="G3" t="n">
-        <v>1.152610058297944</v>
+        <v>1.709206098496675</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6450028307507668</v>
+        <v>0.8698032516661292</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002574407717109009</v>
+        <v>0.1129033171209472</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04824587744354081</v>
+        <v>1.335557349874588</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02791502270839994</v>
+        <v>0.4171372385029168</v>
       </c>
       <c r="L3" t="n">
-        <v>1.011981161244641</v>
+        <v>0.932409017856352</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02835465641127209</v>
+        <v>0.4237067330250802</v>
       </c>
       <c r="N3" t="n">
-        <v>144.3143611469454</v>
+        <v>37.49736000883263</v>
       </c>
       <c r="O3" t="n">
-        <v>285.6495336901618</v>
+        <v>74.46194359705845</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_34_8</t>
+          <t>model_1_34_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9998128592029366</v>
+        <v>0.9505000758790787</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8276168326130083</v>
+        <v>0.7441236463925782</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8196696171112896</v>
+        <v>0.7557889411479735</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9994755852485671</v>
+        <v>0.9660839246702274</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0007789785638431119</v>
+        <v>0.1735225078074511</v>
       </c>
       <c r="G4" t="n">
-        <v>1.152727034068314</v>
+        <v>1.711046354775101</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6450313234365438</v>
+        <v>0.8735287973429139</v>
       </c>
       <c r="I4" t="n">
-        <v>0.00256217277504881</v>
+        <v>0.1174707610107019</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04836116303281479</v>
+        <v>1.317789480559609</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02791018745625174</v>
+        <v>0.4165603291330694</v>
       </c>
       <c r="L4" t="n">
-        <v>1.011977011012057</v>
+        <v>0.932595848005554</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02834974500873603</v>
+        <v>0.4231207379093554</v>
       </c>
       <c r="N4" t="n">
-        <v>144.3150540600069</v>
+        <v>37.50289592002467</v>
       </c>
       <c r="O4" t="n">
-        <v>285.6502266032233</v>
+        <v>74.46747950825049</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_34_6</t>
+          <t>model_1_34_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9998327951945214</v>
+        <v>0.950527066673766</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8274222436501515</v>
+        <v>0.7439679569379906</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8188183717758009</v>
+        <v>0.7555015463674766</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9996055366010085</v>
+        <v>0.965630204753131</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0006959944666432873</v>
+        <v>0.1734278912910619</v>
       </c>
       <c r="G5" t="n">
-        <v>1.154028251358936</v>
+        <v>1.712087450874813</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6480761786435469</v>
+        <v>0.8745567918086449</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001927259633501151</v>
+        <v>0.1190422525063655</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0447174575310802</v>
+        <v>1.311875066932435</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02638170704566494</v>
+        <v>0.4164467448438778</v>
       </c>
       <c r="L5" t="n">
-        <v>1.010701107550631</v>
+        <v>0.9326326014281069</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02679719255960235</v>
+        <v>0.4230053647811518</v>
       </c>
       <c r="N5" t="n">
-        <v>144.5403376957732</v>
+        <v>37.50398675628231</v>
       </c>
       <c r="O5" t="n">
-        <v>285.8755102389896</v>
+        <v>74.46857034450814</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_34_2</t>
+          <t>model_1_34_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.999846774640772</v>
+        <v>0.9505985450299095</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8269543629089591</v>
+        <v>0.7437567266034035</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8168798564401205</v>
+        <v>0.7546878609452592</v>
       </c>
       <c r="E6" t="n">
-        <v>0.999793132333001</v>
+        <v>0.9645014256262517</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0006378046484184175</v>
+        <v>0.1731773231572262</v>
       </c>
       <c r="G6" t="n">
-        <v>1.157156972029683</v>
+        <v>1.713499949094823</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6550101355976981</v>
+        <v>0.8774672973837244</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001010708991259784</v>
+        <v>0.1229518600231029</v>
       </c>
       <c r="J6" t="n">
-        <v>0.04633694806742148</v>
+        <v>1.297651102139399</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02525479456298185</v>
+        <v>0.4161457955539455</v>
       </c>
       <c r="L6" t="n">
-        <v>1.009806422990593</v>
+        <v>0.932729933657749</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02565253233181619</v>
+        <v>0.4226996758407419</v>
       </c>
       <c r="N6" t="n">
-        <v>144.7149570304158</v>
+        <v>37.50687844015827</v>
       </c>
       <c r="O6" t="n">
-        <v>286.0501295736321</v>
+        <v>74.4714620283841</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_34_4</t>
+          <t>model_1_34_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9998495968563696</v>
+        <v>0.9506375407685926</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8269460824720838</v>
+        <v>0.7435943356381971</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8181751424213508</v>
+        <v>0.7540623691848927</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9997177068838796</v>
+        <v>0.9635861948237092</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0006260571006489934</v>
+        <v>0.1730406231826247</v>
       </c>
       <c r="G7" t="n">
-        <v>1.157212343349196</v>
+        <v>1.7145858582269</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6503769727478337</v>
+        <v>0.8797046451424598</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001379220807063265</v>
+        <v>0.1261218275924555</v>
       </c>
       <c r="J7" t="n">
-        <v>0.04388657026504233</v>
+        <v>1.286543710147015</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02502113308083775</v>
+        <v>0.4159815178377818</v>
       </c>
       <c r="L7" t="n">
-        <v>1.009625801192342</v>
+        <v>0.9327830342380836</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02541519091490412</v>
+        <v>0.422532810914766</v>
       </c>
       <c r="N7" t="n">
-        <v>144.7521379518596</v>
+        <v>37.50845779192961</v>
       </c>
       <c r="O7" t="n">
-        <v>286.0873104950759</v>
+        <v>74.47304138015542</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_34_3</t>
+          <t>model_1_34_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9998526118662863</v>
+        <v>0.950644943374042</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8269312264100284</v>
+        <v>0.743556446955087</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8177008747689409</v>
+        <v>0.7539073717479925</v>
       </c>
       <c r="E8" t="n">
-        <v>0.999759921263445</v>
+        <v>0.963356212242616</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0006135070413799354</v>
+        <v>0.1730146732708885</v>
       </c>
       <c r="G8" t="n">
-        <v>1.157311685904566</v>
+        <v>1.714839220025318</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6520734006408851</v>
+        <v>0.8802590619869837</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001172970823167076</v>
+        <v>0.1269183887675779</v>
       </c>
       <c r="J8" t="n">
-        <v>0.04244306981133748</v>
+        <v>1.283798643356734</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02476907429396455</v>
+        <v>0.4159503254847728</v>
       </c>
       <c r="L8" t="n">
-        <v>1.009432840557679</v>
+        <v>0.9327931143816742</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02515916245410401</v>
+        <v>0.4225011273133782</v>
       </c>
       <c r="N8" t="n">
-        <v>144.7926376329745</v>
+        <v>37.5087577429727</v>
       </c>
       <c r="O8" t="n">
-        <v>286.1278101761909</v>
+        <v>74.47334133119853</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_34_5</t>
+          <t>model_1_34_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9998541369824689</v>
+        <v>0.9506516982249568</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8269289340275543</v>
+        <v>0.7435180711576912</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8182784685048262</v>
+        <v>0.7537547422846517</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9997059584836249</v>
+        <v>0.9631262120526402</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0006071587045536782</v>
+        <v>0.1729909940695279</v>
       </c>
       <c r="G9" t="n">
-        <v>1.157327015076726</v>
+        <v>1.715095839159209</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6500073813384326</v>
+        <v>0.8808050087273891</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001436620853878986</v>
+        <v>0.1277150109323293</v>
       </c>
       <c r="J9" t="n">
-        <v>0.04237815921307229</v>
+        <v>1.281065449622729</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02464059058857312</v>
+        <v>0.4159218605333554</v>
       </c>
       <c r="L9" t="n">
-        <v>1.009335233121988</v>
+        <v>0.9328023124765369</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02502865525878925</v>
+        <v>0.4224722140674304</v>
       </c>
       <c r="N9" t="n">
-        <v>144.8134406876479</v>
+        <v>37.50903148648193</v>
       </c>
       <c r="O9" t="n">
-        <v>286.1486132308643</v>
+        <v>74.47361507470775</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_34_1</t>
+          <t>model_1_34_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.999850763903057</v>
+        <v>0.9506556758722994</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8265922476965784</v>
+        <v>0.7434636238237383</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8160317000471161</v>
+        <v>0.7536176943384491</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999013504884643</v>
+        <v>0.9628941390664556</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0006211992376560035</v>
+        <v>0.1729770503846777</v>
       </c>
       <c r="G10" t="n">
-        <v>1.159578438122261</v>
+        <v>1.715459928732058</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6580439418365414</v>
+        <v>0.8812952212844593</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0004819793723156064</v>
+        <v>0.1285188123755107</v>
       </c>
       <c r="J10" t="n">
-        <v>0.04264783864374968</v>
+        <v>1.278354602804197</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02492386883403144</v>
+        <v>0.4159050978103991</v>
       </c>
       <c r="L10" t="n">
-        <v>1.009551110204349</v>
+        <v>0.9328077288473864</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02531639485343918</v>
+        <v>0.4224551873483441</v>
       </c>
       <c r="N10" t="n">
-        <v>144.7677173878047</v>
+        <v>37.50919270004002</v>
       </c>
       <c r="O10" t="n">
-        <v>286.1028899310211</v>
+        <v>74.47377628826584</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_34_0</t>
+          <t>model_1_34_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9998439195423136</v>
+        <v>0.950659708452153</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8261991633654533</v>
+        <v>0.7434177164088519</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8154226527106553</v>
+        <v>0.753475079845607</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999324273257919</v>
+        <v>0.9626623230148135</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0006496890719735893</v>
+        <v>0.1729629141333284</v>
       </c>
       <c r="G11" t="n">
-        <v>1.162206994854481</v>
+        <v>1.715766911826788</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6602224688444682</v>
+        <v>0.8818053450560919</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0003301449200661431</v>
+        <v>0.1293217239074649</v>
       </c>
       <c r="J11" t="n">
-        <v>0.04215390534689405</v>
+        <v>1.275739578825003</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02548899903828295</v>
+        <v>0.4158881028994799</v>
       </c>
       <c r="L11" t="n">
-        <v>1.009989149291933</v>
+        <v>0.932813220019953</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02589042529348471</v>
+        <v>0.4224379247845667</v>
       </c>
       <c r="N11" t="n">
-        <v>144.6780333206614</v>
+        <v>37.50935615327245</v>
       </c>
       <c r="O11" t="n">
-        <v>286.0132058638778</v>
+        <v>74.47393974149827</v>
       </c>
     </row>
   </sheetData>
